--- a/biology/Zoologie/Euphaedra_justitia/Euphaedra_justitia.xlsx
+++ b/biology/Zoologie/Euphaedra_justitia/Euphaedra_justitia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphaedra justitia (parfois orthographié E. justicia) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Limenitidinae, du genre Euphaedra, du sous-genre Euphaedrana.
 </t>
@@ -511,12 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Euphaedra justitia a été décrite par le naturaliste allemand Otto Staudinger en 1886.
-Synonymie[1]
-Euphaedra themis var. justitia Staudinger, 1886; in Staudinger &amp; Schatz, Exot. Schmett. 1 (13): 149
-Euphaedra themis var. auretta Gaede, 1916; Int. ent. Zs. 9 (21): 110; TL: Dengdeng, Neu-Kamerun.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Euphaedra justitia a été décrite par le naturaliste allemand Otto Staudinger en 1886.
+</t>
         </is>
       </c>
     </row>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie[1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euphaedra themis var. justitia Staudinger, 1886; in Staudinger &amp; Schatz, Exot. Schmett. 1 (13): 149
+Euphaedra themis var. auretta Gaede, 1916; Int. ent. Zs. 9 (21): 110; TL: Dengdeng, Neu-Kamerun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphaedra_justitia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphaedra_justitia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce exclusivement africaine se rencontre au Nigeria, au Cameroun, au Gabon et au Congo (ex Zaïre)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce exclusivement africaine se rencontre au Nigeria, au Cameroun, au Gabon et au Congo (ex Zaïre).
 </t>
         </is>
       </c>
